--- a/score.xlsx
+++ b/score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanya\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F77FBE-8A25-47CA-92A4-E30C0451D545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A5F01B-B3B3-479E-92D8-8BCF980E8028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{3086FF20-5350-4040-BE16-3F89AFBF5FCA}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{3086FF20-5350-4040-BE16-3F89AFBF5FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Math</t>
   </si>
@@ -58,6 +58,78 @@
   </si>
   <si>
     <t>Jay</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Carrie</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Kaylie</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Macy</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Andrew</t>
   </si>
 </sst>
 </file>
@@ -409,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE6B3BE-2E99-4992-8FAE-E70B27C19D7F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,6 +571,342 @@
         <v>75</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>77</v>
+      </c>
+      <c r="C20">
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>66</v>
+      </c>
+      <c r="C25">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>88</v>
+      </c>
+      <c r="C26">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>78</v>
+      </c>
+      <c r="C27">
+        <v>77</v>
+      </c>
+      <c r="D27">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>62</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
